--- a/H2Z4X3_0330/8.gyak.xlsx
+++ b/H2Z4X3_0330/8.gyak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mega\2. félév tárgyak\Oprendszerek\os_gyak\H2Z4X3_0330\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061D22D-EAE9-407A-8A95-1472AB91E3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF37BB25-0EE2-4B3F-A437-C38493204149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s" sheetId="1" r:id="rId1"/>
@@ -644,19 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -672,6 +660,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,6 +674,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -693,12 +694,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -707,11 +709,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -995,30 +995,30 @@
   <dimension ref="B1:BS48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="3.5703125" customWidth="1"/>
-    <col min="40" max="40" width="3.85546875" customWidth="1"/>
-    <col min="41" max="41" width="4.7109375" customWidth="1"/>
-    <col min="42" max="43" width="3.5703125" customWidth="1"/>
-    <col min="44" max="44" width="4.140625" customWidth="1"/>
-    <col min="45" max="45" width="4.28515625" customWidth="1"/>
-    <col min="46" max="46" width="3.7109375" customWidth="1"/>
-    <col min="47" max="47" width="3.5703125" customWidth="1"/>
-    <col min="48" max="48" width="3.28515625" customWidth="1"/>
-    <col min="49" max="72" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="39" width="3.5546875" customWidth="1"/>
+    <col min="40" max="40" width="3.88671875" customWidth="1"/>
+    <col min="41" max="41" width="4.6640625" customWidth="1"/>
+    <col min="42" max="43" width="3.5546875" customWidth="1"/>
+    <col min="44" max="44" width="4.109375" customWidth="1"/>
+    <col min="45" max="45" width="4.33203125" customWidth="1"/>
+    <col min="46" max="46" width="3.6640625" customWidth="1"/>
+    <col min="47" max="47" width="3.5546875" customWidth="1"/>
+    <col min="48" max="48" width="3.33203125" customWidth="1"/>
+    <col min="49" max="72" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1030,184 +1030,184 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>6</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>7</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>8</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>9</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>10</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>11</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>12</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>13</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>14</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <v>15</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="1">
         <v>16</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <v>17</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="1">
         <v>18</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="1">
         <v>19</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="1">
         <v>20</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="1">
         <v>21</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="1">
         <v>22</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="1">
         <v>23</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="1">
         <v>24</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="1">
         <v>25</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="1">
         <v>26</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="1">
         <v>27</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="1">
         <v>28</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="1">
         <v>29</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="1">
         <v>30</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="1">
         <v>31</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="1">
         <v>32</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="1">
         <v>33</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="1">
         <v>34</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="1">
         <v>35</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="1">
         <v>36</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="1">
         <v>37</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="1">
         <v>38</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="1">
         <v>39</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="1">
         <v>40</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="1">
         <v>41</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="1">
         <v>42</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="1">
         <v>43</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="1">
         <v>44</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="1">
         <v>45</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="1">
         <v>46</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="1">
         <v>47</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="1">
         <v>48</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="1">
         <v>49</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="1">
         <v>50</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="1">
         <v>51</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="1">
         <v>52</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="1">
         <v>53</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="1">
         <v>54</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="1">
         <v>55</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="1">
         <v>56</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="1">
         <v>57</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="1">
         <v>58</v>
       </c>
       <c r="BQ2">
@@ -1220,11 +1220,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="17">
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -1236,29 +1236,74 @@
       <c r="F3" s="5">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+    </row>
+    <row r="4" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="17">
         <v>14</v>
       </c>
       <c r="D4" s="1">
@@ -1270,30 +1315,74 @@
       <c r="F4" s="5">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-    </row>
-    <row r="5" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+    </row>
+    <row r="5" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>0</v>
       </c>
       <c r="D5" s="1">
@@ -1305,63 +1394,74 @@
       <c r="F5" s="5">
         <v>58</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-    </row>
-    <row r="6" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+    </row>
+    <row r="6" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <f>(C$4+C$5)</f>
         <v>14</v>
       </c>
@@ -1378,11 +1478,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="18">
         <f>C$5-C$3</f>
         <v>0</v>
       </c>
@@ -1394,114 +1494,114 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <f>C$6-C$3</f>
         <v>14</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="13">
         <f t="shared" ref="D8:F8" si="2">D$6-D$3</f>
         <v>15</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="13">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="14">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="10">
         <f>(C$5-C$3)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <f>(D$5-D$3)</f>
         <v>7</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="10">
         <f t="shared" ref="E9:F9" si="3">(E$5-E$3)</f>
         <v>11</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:71" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+    <row r="10" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:71" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="33"/>
-    </row>
-    <row r="13" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="34">
         <f>AVERAGE(C8:F8)</f>
         <v>31</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="2:71" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="34">
         <f>AVERAGE(C7:F7)</f>
         <v>14</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="2:71" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="37">
         <f>AVERAGE(C9:F9)</f>
         <v>14</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1517,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
@@ -1598,82 +1698,82 @@
       <c r="E24" s="7">
         <v>21</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="24">
         <v>14</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="24">
         <v>15</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="24">
         <v>57</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="25">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="34">
         <f>AVERAGE(C25:F25)</f>
         <v>24.5</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="33"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="34">
         <f>AVERAGE(C24:F24)</f>
         <v>7.5</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="33"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="37">
         <f>AVERAGE(C24:F24)</f>
         <v>7.5</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1689,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1706,7 +1806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +1840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
@@ -1770,72 +1870,72 @@
       <c r="E40" s="7">
         <v>11.1</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="27">
         <v>22</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="27">
         <v>11</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="27">
         <v>57</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="28">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="30" t="s">
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="33"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="40">
         <f>AVERAGE(C41:F41)</f>
         <v>28</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="42"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="40">
         <v>11</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="42"/>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="43"/>
@@ -1843,6 +1943,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="B11:E11"/>
@@ -1850,13 +1957,6 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B44:E44"/>
     <mergeCell ref="C28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,7 +1970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
